--- a/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TY\Desktop\6.CPU设计实验\6.CPU设计实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\college course\组原课设\cpu.circ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB5459E-77E0-4331-8360-9DC9CE2F34EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAEC407-B86F-4EEA-9586-89D9B0164790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="420" windowWidth="27000" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AL$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -840,6 +839,26 @@
   </si>
   <si>
     <t>ERET</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLLV</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAV</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEZ</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
@@ -2062,27 +2081,27 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="32" customWidth="1"/>
-    <col min="5" max="9" width="4.58203125" style="32" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="32" customWidth="1"/>
+    <col min="5" max="9" width="4.625" style="32" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="4.25" style="32" hidden="1" customWidth="1"/>
-    <col min="11" max="16" width="4.58203125" style="32" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="3.58203125" style="32" hidden="1" customWidth="1"/>
+    <col min="11" max="16" width="4.625" style="32" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="3.625" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="3.75" style="32" hidden="1" customWidth="1"/>
-    <col min="21" max="31" width="6.58203125" style="65" customWidth="1"/>
-    <col min="32" max="33" width="6.58203125" style="66" customWidth="1"/>
-    <col min="34" max="44" width="6.58203125" style="67" customWidth="1"/>
+    <col min="21" max="31" width="6.625" style="65" customWidth="1"/>
+    <col min="32" max="33" width="6.625" style="66" customWidth="1"/>
+    <col min="34" max="44" width="6.625" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="17" customFormat="1" ht="27.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -2324,7 +2343,7 @@
       <c r="AQ2" s="61"/>
       <c r="AR2" s="61"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -2432,7 +2451,7 @@
       <c r="AQ3" s="64"/>
       <c r="AR3" s="64"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -2540,7 +2559,7 @@
       <c r="AQ4" s="61"/>
       <c r="AR4" s="61"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -2648,7 +2667,7 @@
       <c r="AQ5" s="64"/>
       <c r="AR5" s="64"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -2756,7 +2775,7 @@
       <c r="AQ6" s="61"/>
       <c r="AR6" s="61"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -2864,7 +2883,7 @@
       <c r="AQ7" s="64"/>
       <c r="AR7" s="64"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -2972,7 +2991,7 @@
       <c r="AQ8" s="61"/>
       <c r="AR8" s="61"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -3080,7 +3099,7 @@
       <c r="AQ9" s="64"/>
       <c r="AR9" s="64"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -3188,7 +3207,7 @@
       <c r="AQ10" s="61"/>
       <c r="AR10" s="61"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -3296,7 +3315,7 @@
       <c r="AQ11" s="64"/>
       <c r="AR11" s="64"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -3404,7 +3423,7 @@
       <c r="AQ12" s="61"/>
       <c r="AR12" s="61"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3514,7 +3533,7 @@
       <c r="AQ13" s="64"/>
       <c r="AR13" s="64"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -3620,7 +3639,7 @@
       <c r="AQ14" s="61"/>
       <c r="AR14" s="61"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -3726,7 +3745,7 @@
       <c r="AQ15" s="64"/>
       <c r="AR15" s="64"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -3836,7 +3855,7 @@
       <c r="AQ16" s="61"/>
       <c r="AR16" s="61"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -3942,7 +3961,7 @@
       <c r="AQ17" s="64"/>
       <c r="AR17" s="64"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -4048,7 +4067,7 @@
       <c r="AQ18" s="61"/>
       <c r="AR18" s="61"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -4158,7 +4177,7 @@
       <c r="AQ19" s="64"/>
       <c r="AR19" s="64"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -4266,7 +4285,7 @@
       <c r="AQ20" s="61"/>
       <c r="AR20" s="61"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -4376,7 +4395,7 @@
       <c r="AQ21" s="64"/>
       <c r="AR21" s="64"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -4486,7 +4505,7 @@
       <c r="AQ22" s="61"/>
       <c r="AR22" s="61"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -4594,7 +4613,7 @@
       <c r="AQ23" s="64"/>
       <c r="AR23" s="64"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -4706,7 +4725,7 @@
       <c r="AQ24" s="61"/>
       <c r="AR24" s="61"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -4816,7 +4835,7 @@
       <c r="AQ25" s="64"/>
       <c r="AR25" s="64"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -4922,78 +4941,86 @@
       <c r="AQ26" s="61"/>
       <c r="AR26" s="61"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="53" t="str">
+      <c r="B27" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="46">
+        <v>0</v>
+      </c>
+      <c r="D27" s="47">
+        <v>4</v>
+      </c>
+      <c r="E27" s="53">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J27" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="J27" s="53">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="K27" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="M27" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N27" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N27" s="54">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O27" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="O27" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P27" s="47" t="str">
+        <v>0</v>
+      </c>
+      <c r="P27" s="47">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="S27" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T27" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T27" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U27" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="62">
+        <v>0</v>
+      </c>
       <c r="V27" s="63"/>
       <c r="W27" s="63"/>
       <c r="X27" s="63"/>
@@ -5018,78 +5045,86 @@
       <c r="AQ27" s="64"/>
       <c r="AR27" s="64"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>27</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39" t="str">
+      <c r="B28" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="39">
+        <v>0</v>
+      </c>
+      <c r="D28" s="40">
+        <v>7</v>
+      </c>
+      <c r="E28" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G28" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K28" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="K28" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L28" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="L28" s="40">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M28" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="M28" s="40">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N28" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" s="40">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O28" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="O28" s="40">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P28" s="25" t="str">
+        <v>1</v>
+      </c>
+      <c r="P28" s="25">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q28" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R28" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R28" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S28" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="S28" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T28" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T28" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U28" s="59"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="59">
+        <v>1</v>
+      </c>
       <c r="V28" s="60"/>
       <c r="W28" s="60"/>
       <c r="X28" s="60"/>
@@ -5114,36 +5149,42 @@
       <c r="AQ28" s="61"/>
       <c r="AR28" s="61"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="53" t="str">
+      <c r="B29" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="46">
+        <v>41</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="53">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="F29" s="53">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H29" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="H29" s="53">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I29" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J29" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="J29" s="53">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="54" t="str">
         <f t="shared" si="6"/>
@@ -5185,7 +5226,9 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="U29" s="62"/>
+      <c r="U29" s="62" t="s">
+        <v>123</v>
+      </c>
       <c r="V29" s="63"/>
       <c r="W29" s="63"/>
       <c r="X29" s="63"/>
@@ -5210,36 +5253,42 @@
       <c r="AQ29" s="64"/>
       <c r="AR29" s="64"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>29</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39" t="str">
+      <c r="B30" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="39">
+        <v>6</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F30" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G30" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H30" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I30" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="I30" s="39">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J30" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="J30" s="39">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K30" s="40" t="str">
         <f t="shared" si="6"/>
@@ -5265,23 +5314,25 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q30" s="33" t="str">
+      <c r="Q30" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R30" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="R30" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S30" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="S30" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T30" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T30" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U30" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="59">
+        <v>12</v>
+      </c>
       <c r="V30" s="60"/>
       <c r="W30" s="60"/>
       <c r="X30" s="60"/>
@@ -5306,7 +5357,7 @@
       <c r="AQ30" s="61"/>
       <c r="AR30" s="61"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -5402,7 +5453,7 @@
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>31</v>
       </c>
@@ -5498,7 +5549,7 @@
       <c r="AQ32" s="61"/>
       <c r="AR32" s="61"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="52"/>
       <c r="C33" s="46"/>
@@ -5592,7 +5643,7 @@
       <c r="AQ33" s="64"/>
       <c r="AR33" s="64"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="35"/>
       <c r="C34" s="39"/>
@@ -5686,7 +5737,7 @@
       <c r="AQ34" s="61"/>
       <c r="AR34" s="61"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="52"/>
       <c r="C35" s="46"/>
@@ -5780,7 +5831,7 @@
       <c r="AQ35" s="64"/>
       <c r="AR35" s="64"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="35"/>
       <c r="C36" s="39"/>
@@ -5874,7 +5925,7 @@
       <c r="AQ36" s="61"/>
       <c r="AR36" s="61"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="52"/>
       <c r="C37" s="46"/>
@@ -5968,7 +6019,7 @@
       <c r="AQ37" s="64"/>
       <c r="AR37" s="64"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="35"/>
       <c r="C38" s="39"/>
@@ -6062,7 +6113,7 @@
       <c r="AQ38" s="61"/>
       <c r="AR38" s="61"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="52"/>
       <c r="C39" s="46"/>
@@ -6156,7 +6207,7 @@
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="35"/>
       <c r="C40" s="39"/>
@@ -6250,7 +6301,7 @@
       <c r="AQ40" s="61"/>
       <c r="AR40" s="61"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="52"/>
       <c r="C41" s="46"/>
@@ -6344,7 +6395,7 @@
       <c r="AQ41" s="64"/>
       <c r="AR41" s="64"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="35"/>
       <c r="C42" s="39"/>
@@ -6438,7 +6489,7 @@
       <c r="AQ42" s="61"/>
       <c r="AR42" s="61"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="52"/>
       <c r="C43" s="46"/>
@@ -6532,7 +6583,7 @@
       <c r="AQ43" s="64"/>
       <c r="AR43" s="64"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="35"/>
       <c r="C44" s="39"/>
@@ -6626,7 +6677,7 @@
       <c r="AQ44" s="61"/>
       <c r="AR44" s="61"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="52"/>
       <c r="C45" s="46"/>
@@ -6720,7 +6771,7 @@
       <c r="AQ45" s="64"/>
       <c r="AR45" s="64"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="35"/>
       <c r="C46" s="39"/>
@@ -6814,7 +6865,7 @@
       <c r="AQ46" s="61"/>
       <c r="AR46" s="61"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="52"/>
       <c r="C47" s="46"/>
@@ -6908,7 +6959,7 @@
       <c r="AQ47" s="64"/>
       <c r="AR47" s="64"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="35"/>
       <c r="C48" s="39"/>
@@ -7002,7 +7053,7 @@
       <c r="AQ48" s="61"/>
       <c r="AR48" s="61"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="52"/>
       <c r="C49" s="46"/>
@@ -7096,7 +7147,7 @@
       <c r="AQ49" s="64"/>
       <c r="AR49" s="64"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="35"/>
       <c r="C50" s="39"/>
@@ -7190,7 +7241,7 @@
       <c r="AQ50" s="61"/>
       <c r="AR50" s="61"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="B51" s="52"/>
       <c r="C51" s="46"/>
@@ -7284,7 +7335,7 @@
       <c r="AQ51" s="64"/>
       <c r="AR51" s="64"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="35"/>
       <c r="C52" s="39"/>
@@ -7378,7 +7429,7 @@
       <c r="AQ52" s="61"/>
       <c r="AR52" s="61"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="B53" s="52"/>
       <c r="C53" s="46"/>
@@ -7472,7 +7523,7 @@
       <c r="AQ53" s="64"/>
       <c r="AR53" s="64"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="35"/>
       <c r="C54" s="39"/>
@@ -7566,7 +7617,7 @@
       <c r="AQ54" s="61"/>
       <c r="AR54" s="61"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="52"/>
       <c r="C55" s="46"/>
@@ -7660,7 +7711,7 @@
       <c r="AQ55" s="64"/>
       <c r="AR55" s="64"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="35"/>
       <c r="C56" s="39"/>
@@ -7754,7 +7805,7 @@
       <c r="AQ56" s="61"/>
       <c r="AR56" s="61"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="52"/>
       <c r="C57" s="46"/>
@@ -7848,7 +7899,7 @@
       <c r="AQ57" s="64"/>
       <c r="AR57" s="64"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="35"/>
       <c r="C58" s="39"/>
@@ -7942,7 +7993,7 @@
       <c r="AQ58" s="61"/>
       <c r="AR58" s="61"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="52"/>
       <c r="C59" s="46"/>
@@ -8036,7 +8087,7 @@
       <c r="AQ59" s="64"/>
       <c r="AR59" s="64"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="35"/>
       <c r="C60" s="39"/>
@@ -8130,7 +8181,7 @@
       <c r="AQ60" s="61"/>
       <c r="AR60" s="61"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="52"/>
       <c r="C61" s="46"/>
@@ -8386,28 +8437,28 @@
   </sheetPr>
   <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="18" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="4.58203125" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="4.625" style="18" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4.25" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="4.58203125" style="18" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.83203125" style="18" customWidth="1"/>
-    <col min="17" max="20" width="4.58203125" style="18" customWidth="1"/>
-    <col min="21" max="32" width="6.58203125" customWidth="1"/>
-    <col min="33" max="36" width="6.58203125" style="19" customWidth="1"/>
-    <col min="37" max="43" width="6.58203125" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="18" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.875" style="18" customWidth="1"/>
+    <col min="17" max="20" width="4.625" style="18" customWidth="1"/>
+    <col min="21" max="32" width="6.625" customWidth="1"/>
+    <col min="33" max="36" width="6.625" style="19" customWidth="1"/>
+    <col min="37" max="43" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="17" customFormat="1" ht="27.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -8577,7 +8628,7 @@
         <v>XXX</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="str">
         <f>真值表!B2</f>
         <v>SLL</v>
@@ -8751,7 +8802,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="str">
         <f>真值表!B3</f>
         <v>SRA</v>
@@ -8925,7 +8976,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="str">
         <f>真值表!B4</f>
         <v>SRL</v>
@@ -9099,7 +9150,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="str">
         <f>真值表!B5</f>
         <v>ADD</v>
@@ -9273,7 +9324,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="str">
         <f>真值表!B6</f>
         <v>ADDU</v>
@@ -9447,7 +9498,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="str">
         <f>真值表!B7</f>
         <v>SUB</v>
@@ -9621,7 +9672,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="str">
         <f>真值表!B8</f>
         <v>AND</v>
@@ -9795,7 +9846,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="str">
         <f>真值表!B9</f>
         <v>OR</v>
@@ -9969,7 +10020,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="str">
         <f>真值表!B10</f>
         <v>NOR</v>
@@ -10143,7 +10194,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="str">
         <f>真值表!B11</f>
         <v>SLT</v>
@@ -10317,7 +10368,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="str">
         <f>真值表!B12</f>
         <v>SLTU</v>
@@ -10491,7 +10542,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="str">
         <f>真值表!B13</f>
         <v>JR</v>
@@ -10665,7 +10716,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="str">
         <f>真值表!B14</f>
         <v>SYSCALL</v>
@@ -10839,7 +10890,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="str">
         <f>真值表!B15</f>
         <v>J</v>
@@ -11013,7 +11064,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="str">
         <f>真值表!B16</f>
         <v>JAL</v>
@@ -11187,7 +11238,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="str">
         <f>真值表!B17</f>
         <v>BEQ</v>
@@ -11361,7 +11412,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="str">
         <f>真值表!B18</f>
         <v>BNE</v>
@@ -11535,7 +11586,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -11709,7 +11760,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -11883,7 +11934,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -12057,7 +12108,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -12231,7 +12282,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -12405,7 +12456,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -12579,7 +12630,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -12753,7 +12804,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
         <f>真值表!B26</f>
         <v>ERET</v>
@@ -12927,10 +12978,10 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="27">
+    <row r="27" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="str">
         <f>真值表!B27</f>
-        <v>0</v>
+        <v>SLLV</v>
       </c>
       <c r="B27" s="46">
         <f>真值表!C27</f>
@@ -12938,59 +12989,59 @@
       </c>
       <c r="C27" s="47">
         <f>真值表!D27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="48" t="str">
         <f>IF(真值表!E27=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E27=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E27" s="48" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F27" s="48" t="str">
         <f>IF(真值表!G27=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G27=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G27" s="48" t="str">
         <f>IF(真值表!H27=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H27=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H27" s="48" t="str">
         <f>IF(真值表!I27=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I27=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I27" s="48" t="str">
         <f>IF(真值表!J27=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J27=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J27" s="49" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F5&amp;</v>
       </c>
       <c r="K27" s="49" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F4&amp;</v>
       </c>
       <c r="L27" s="49" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F3&amp;</v>
       </c>
       <c r="M27" s="49" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F2&amp;</v>
       </c>
       <c r="N27" s="49" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F1&amp;</v>
       </c>
       <c r="O27" s="49" t="str">
         <f>IF(真值表!P27=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P27=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F0&amp;</v>
       </c>
       <c r="P27" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0</v>
       </c>
       <c r="Q27" s="51" t="str">
         <f>IF(真值表!Q27=1,$P27&amp;"+","")</f>
@@ -13101,10 +13152,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="23">
+    <row r="28" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="str">
         <f>真值表!B28</f>
-        <v>0</v>
+        <v>SRAV</v>
       </c>
       <c r="B28" s="24">
         <f>真值表!C28</f>
@@ -13112,59 +13163,59 @@
       </c>
       <c r="C28" s="25">
         <f>真值表!D28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="26" t="str">
         <f>IF(真值表!E28=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E28=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E28" s="26" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F28" s="26" t="str">
         <f>IF(真值表!G28=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G28=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G28" s="26" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H28" s="26" t="str">
         <f>IF(真值表!I28=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I28=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I28" s="26" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J28" s="55" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F5&amp;</v>
       </c>
       <c r="K28" s="55" t="str">
         <f>IF(真值表!L28=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L28=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F4&amp;</v>
       </c>
       <c r="L28" s="55" t="str">
         <f>IF(真值表!M28=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M28=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F3&amp;</v>
       </c>
       <c r="M28" s="55" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F2&amp;</v>
       </c>
       <c r="N28" s="55" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F1&amp;</v>
       </c>
       <c r="O28" s="55" t="str">
         <f>IF(真值表!P28=1," "&amp;真值表!P$1&amp;"&amp;",IF(真值表!P28=0,"~"&amp;真值表!P$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F0&amp;</v>
       </c>
       <c r="P28" s="29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="Q28" s="31" t="str">
         <f>IF(真值表!Q28=1,$P28&amp;"+","")</f>
@@ -13180,7 +13231,7 @@
       </c>
       <c r="T28" s="31" t="str">
         <f>IF(真值表!T28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="U28" s="31" t="str">
         <f>IF(真值表!V28=1,$P28&amp;"+","")</f>
@@ -13275,42 +13326,42 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="27">
+    <row r="29" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="str">
         <f>真值表!B29</f>
-        <v>0</v>
+        <v>SH</v>
       </c>
       <c r="B29" s="46">
         <f>真值表!C29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="47">
+        <v>41</v>
+      </c>
+      <c r="C29" s="47" t="str">
         <f>真值表!D29</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D29" s="48" t="str">
         <f>IF(真值表!E29=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E29=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="E29" s="48" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F29" s="48" t="str">
         <f>IF(真值表!G29=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G29=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP3&amp;</v>
       </c>
       <c r="G29" s="48" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="H29" s="48" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP1&amp;</v>
       </c>
       <c r="I29" s="48" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP0&amp;</v>
       </c>
       <c r="J29" s="49" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -13338,7 +13389,7 @@
       </c>
       <c r="P29" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="Q29" s="51" t="str">
         <f>IF(真值表!Q29=1,$P29&amp;"+","")</f>
@@ -13449,42 +13500,42 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="23">
+    <row r="30" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="str">
         <f>真值表!B30</f>
-        <v>0</v>
+        <v>BLEZ</v>
       </c>
       <c r="B30" s="24">
         <f>真值表!C30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="25">
+        <v>6</v>
+      </c>
+      <c r="C30" s="25" t="str">
         <f>真值表!D30</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D30" s="26" t="str">
         <f>IF(真值表!E30=1," "&amp;真值表!E$1&amp;"&amp;",IF(真值表!E30=0,"~"&amp;真值表!E$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="E30" s="26" t="str">
         <f>IF(真值表!F30=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F30=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="F30" s="26" t="str">
         <f>IF(真值表!G30=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G30=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="G30" s="26" t="str">
         <f>IF(真值表!H30=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H30=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="H30" s="26" t="str">
         <f>IF(真值表!I30=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I30=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP1&amp;</v>
       </c>
       <c r="I30" s="26" t="str">
         <f>IF(真值表!J30=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J30=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP0&amp;</v>
       </c>
       <c r="J30" s="55" t="str">
         <f>IF(真值表!K30=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K30=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -13512,15 +13563,15 @@
       </c>
       <c r="P30" s="29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="Q30" s="31" t="str">
         <f>IF(真值表!Q30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="R30" s="31" t="str">
         <f>IF(真值表!R30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="S30" s="31" t="str">
         <f>IF(真值表!S30=1,$P30&amp;"+","")</f>
@@ -13623,7 +13674,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <f>真值表!B31</f>
         <v>0</v>
@@ -13797,7 +13848,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f>真值表!B32</f>
         <v>0</v>
@@ -13971,7 +14022,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <f>真值表!B33</f>
         <v>0</v>
@@ -14145,7 +14196,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f>真值表!B34</f>
         <v>0</v>
@@ -14319,7 +14370,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <f>真值表!B35</f>
         <v>0</v>
@@ -14493,7 +14544,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f>真值表!B36</f>
         <v>0</v>
@@ -14667,7 +14718,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27">
         <f>真值表!B37</f>
         <v>0</v>
@@ -14841,7 +14892,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f>真值表!B38</f>
         <v>0</v>
@@ -15015,7 +15066,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <f>真值表!B39</f>
         <v>0</v>
@@ -15189,7 +15240,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>真值表!B40</f>
         <v>0</v>
@@ -15363,7 +15414,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <f>真值表!B41</f>
         <v>0</v>
@@ -15537,7 +15588,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f>真值表!B42</f>
         <v>0</v>
@@ -15711,7 +15762,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <f>真值表!B43</f>
         <v>0</v>
@@ -15885,7 +15936,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>真值表!B44</f>
         <v>0</v>
@@ -16059,7 +16110,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
         <f>真值表!B45</f>
         <v>0</v>
@@ -16233,7 +16284,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>真值表!B46</f>
         <v>0</v>
@@ -16407,7 +16458,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
         <f>真值表!B47</f>
         <v>0</v>
@@ -16581,7 +16632,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f>真值表!B48</f>
         <v>0</v>
@@ -16755,7 +16806,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <f>真值表!B49</f>
         <v>0</v>
@@ -16929,7 +16980,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f>真值表!B50</f>
         <v>0</v>
@@ -17103,7 +17154,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <f>真值表!B51</f>
         <v>0</v>
@@ -17277,7 +17328,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f>真值表!B52</f>
         <v>0</v>
@@ -17451,7 +17502,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <f>真值表!B53</f>
         <v>0</v>
@@ -17625,7 +17676,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f>真值表!B54</f>
         <v>0</v>
@@ -17799,7 +17850,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27">
         <f>真值表!B55</f>
         <v>0</v>
@@ -17973,7 +18024,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>真值表!B56</f>
         <v>0</v>
@@ -18147,7 +18198,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27">
         <f>真值表!B57</f>
         <v>0</v>
@@ -18321,7 +18372,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f>真值表!B58</f>
         <v>0</v>
@@ -18495,7 +18546,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27">
         <f>真值表!B59</f>
         <v>0</v>
@@ -18669,7 +18720,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f>真值表!B60</f>
         <v>0</v>
@@ -18843,7 +18894,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27">
         <f>真值表!B61</f>
         <v>0</v>
@@ -19017,7 +19068,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="68" t="s">
         <v>113</v>
       </c>
@@ -19038,11 +19089,11 @@
       <c r="P62" s="68"/>
       <c r="Q62" s="34" t="str">
         <f t="shared" ref="Q62:AQ62" si="1">IF(LEN(Q63)&gt;1,LEFT(Q63,LEN(Q63)-1),"")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="R62" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="S62" s="34" t="str">
         <f t="shared" si="1"/>
@@ -19050,7 +19101,7 @@
       </c>
       <c r="T62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="U62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19145,15 +19196,15 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="Q63" t="str">
         <f t="shared" ref="Q63:AQ63" si="2">CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="2"/>
@@ -19161,7 +19212,7 @@
       </c>
       <c r="T63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="2"/>
@@ -19285,7 +19336,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="18:32" ht="20" x14ac:dyDescent="0.5">
+    <row r="65" spans="18:32" ht="21" x14ac:dyDescent="0.4">
       <c r="V65" s="69" t="s">
         <v>115</v>
       </c>
@@ -19300,7 +19351,7 @@
       <c r="AE65" s="69"/>
       <c r="AF65" s="69"/>
     </row>
-    <row r="67" spans="18:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="18:32" ht="15" x14ac:dyDescent="0.2">
       <c r="R67" s="37" t="s">
         <v>114</v>
       </c>
@@ -19363,14 +19414,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.58203125" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -19381,7 +19432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
@@ -19392,7 +19443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
@@ -19403,7 +19454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>61</v>
       </c>
@@ -19414,7 +19465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>63</v>
       </c>
@@ -19425,7 +19476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>65</v>
       </c>
@@ -19436,7 +19487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
@@ -19447,7 +19498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
@@ -19458,7 +19509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -19469,7 +19520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1000</v>
       </c>
@@ -19480,7 +19531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1001</v>
       </c>
@@ -19491,7 +19542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1010</v>
       </c>
@@ -19502,7 +19553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1011</v>
       </c>
@@ -19513,7 +19564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1100</v>
       </c>
@@ -19541,14 +19592,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="56.08203125" customWidth="1"/>
+    <col min="4" max="4" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19562,7 +19613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -19576,7 +19627,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -19590,7 +19641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -19604,7 +19655,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -19618,7 +19669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -19632,7 +19683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -19646,7 +19697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -19660,7 +19711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -19674,7 +19725,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -19688,7 +19739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -19702,7 +19753,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -19716,7 +19767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -19730,7 +19781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>

--- a/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\college course\组原课设\cpu.circ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAEC407-B86F-4EEA-9586-89D9B0164790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66FB52B-CF3B-474F-96FF-F6966BE77762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="420" windowWidth="27000" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -863,6 +863,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -2081,8 +2089,8 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2214,10 +2222,10 @@
         <v>33</v>
       </c>
       <c r="AL1" s="58" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="AM1" s="58" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="AN1" s="58" t="s">
         <v>33</v>
@@ -2336,7 +2344,9 @@
       <c r="AJ2" s="61"/>
       <c r="AK2" s="61"/>
       <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
+      <c r="AM2" s="61">
+        <v>1</v>
+      </c>
       <c r="AN2" s="61"/>
       <c r="AO2" s="61"/>
       <c r="AP2" s="61"/>
@@ -2444,7 +2454,9 @@
       <c r="AJ3" s="64"/>
       <c r="AK3" s="64"/>
       <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
+      <c r="AM3" s="64">
+        <v>1</v>
+      </c>
       <c r="AN3" s="64"/>
       <c r="AO3" s="64"/>
       <c r="AP3" s="64"/>
@@ -2552,7 +2564,9 @@
       <c r="AJ4" s="61"/>
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
+      <c r="AM4" s="61">
+        <v>1</v>
+      </c>
       <c r="AN4" s="61"/>
       <c r="AO4" s="61"/>
       <c r="AP4" s="61"/>
@@ -2659,8 +2673,12 @@
       <c r="AI5" s="64"/>
       <c r="AJ5" s="64"/>
       <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
+      <c r="AL5" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="64">
+        <v>1</v>
+      </c>
       <c r="AN5" s="64"/>
       <c r="AO5" s="64"/>
       <c r="AP5" s="64"/>
@@ -2767,8 +2785,12 @@
       <c r="AI6" s="61"/>
       <c r="AJ6" s="61"/>
       <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
+      <c r="AL6" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="61">
+        <v>1</v>
+      </c>
       <c r="AN6" s="61"/>
       <c r="AO6" s="61"/>
       <c r="AP6" s="61"/>
@@ -2875,8 +2897,12 @@
       <c r="AI7" s="64"/>
       <c r="AJ7" s="64"/>
       <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="64"/>
+      <c r="AL7" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="64">
+        <v>1</v>
+      </c>
       <c r="AN7" s="64"/>
       <c r="AO7" s="64"/>
       <c r="AP7" s="64"/>
@@ -2983,8 +3009,12 @@
       <c r="AI8" s="61"/>
       <c r="AJ8" s="61"/>
       <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
+      <c r="AL8" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="61">
+        <v>1</v>
+      </c>
       <c r="AN8" s="61"/>
       <c r="AO8" s="61"/>
       <c r="AP8" s="61"/>
@@ -3091,8 +3121,12 @@
       <c r="AI9" s="64"/>
       <c r="AJ9" s="64"/>
       <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
+      <c r="AL9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="64">
+        <v>1</v>
+      </c>
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
       <c r="AP9" s="64"/>
@@ -3199,8 +3233,12 @@
       <c r="AI10" s="61"/>
       <c r="AJ10" s="61"/>
       <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
+      <c r="AL10" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="61">
+        <v>1</v>
+      </c>
       <c r="AN10" s="61"/>
       <c r="AO10" s="61"/>
       <c r="AP10" s="61"/>
@@ -3307,8 +3345,12 @@
       <c r="AI11" s="64"/>
       <c r="AJ11" s="64"/>
       <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
+      <c r="AL11" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="64">
+        <v>1</v>
+      </c>
       <c r="AN11" s="64"/>
       <c r="AO11" s="64"/>
       <c r="AP11" s="64"/>
@@ -3415,8 +3457,12 @@
       <c r="AI12" s="61"/>
       <c r="AJ12" s="61"/>
       <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
+      <c r="AL12" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="61">
+        <v>1</v>
+      </c>
       <c r="AN12" s="61"/>
       <c r="AO12" s="61"/>
       <c r="AP12" s="61"/>
@@ -3525,7 +3571,9 @@
       <c r="AI13" s="64"/>
       <c r="AJ13" s="64"/>
       <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
+      <c r="AL13" s="64">
+        <v>1</v>
+      </c>
       <c r="AM13" s="64"/>
       <c r="AN13" s="64"/>
       <c r="AO13" s="64"/>
@@ -3631,8 +3679,12 @@
       <c r="AI14" s="61"/>
       <c r="AJ14" s="61"/>
       <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
+      <c r="AL14" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="61">
+        <v>1</v>
+      </c>
       <c r="AN14" s="61"/>
       <c r="AO14" s="61"/>
       <c r="AP14" s="61"/>
@@ -3940,7 +3992,9 @@
       <c r="X17" s="63"/>
       <c r="Y17" s="63"/>
       <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
+      <c r="AA17" s="63">
+        <v>1</v>
+      </c>
       <c r="AB17" s="63"/>
       <c r="AC17" s="63">
         <v>1</v>
@@ -3953,8 +4007,12 @@
       <c r="AI17" s="64"/>
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="64"/>
+      <c r="AL17" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="64">
+        <v>1</v>
+      </c>
       <c r="AN17" s="64"/>
       <c r="AO17" s="64"/>
       <c r="AP17" s="64"/>
@@ -4046,7 +4104,9 @@
       <c r="X18" s="60"/>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
+      <c r="AA18" s="60">
+        <v>1</v>
+      </c>
       <c r="AB18" s="60"/>
       <c r="AC18" s="60"/>
       <c r="AD18" s="60">
@@ -4059,8 +4119,12 @@
       <c r="AI18" s="61"/>
       <c r="AJ18" s="61"/>
       <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
+      <c r="AL18" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="61">
+        <v>1</v>
+      </c>
       <c r="AN18" s="61"/>
       <c r="AO18" s="61"/>
       <c r="AP18" s="61"/>
@@ -4169,7 +4233,9 @@
       <c r="AI19" s="64"/>
       <c r="AJ19" s="64"/>
       <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
+      <c r="AL19" s="64">
+        <v>1</v>
+      </c>
       <c r="AM19" s="64"/>
       <c r="AN19" s="64"/>
       <c r="AO19" s="64"/>
@@ -4277,7 +4343,9 @@
       <c r="AI20" s="61"/>
       <c r="AJ20" s="61"/>
       <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
+      <c r="AL20" s="61">
+        <v>1</v>
+      </c>
       <c r="AM20" s="61"/>
       <c r="AN20" s="61"/>
       <c r="AO20" s="61"/>
@@ -4387,7 +4455,9 @@
       <c r="AI21" s="64"/>
       <c r="AJ21" s="64"/>
       <c r="AK21" s="64"/>
-      <c r="AL21" s="64"/>
+      <c r="AL21" s="64">
+        <v>1</v>
+      </c>
       <c r="AM21" s="64"/>
       <c r="AN21" s="64"/>
       <c r="AO21" s="64"/>
@@ -4497,7 +4567,9 @@
       <c r="AI22" s="61"/>
       <c r="AJ22" s="61"/>
       <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
+      <c r="AL22" s="61">
+        <v>1</v>
+      </c>
       <c r="AM22" s="61"/>
       <c r="AN22" s="61"/>
       <c r="AO22" s="61"/>
@@ -4605,7 +4677,9 @@
       <c r="AI23" s="64"/>
       <c r="AJ23" s="64"/>
       <c r="AK23" s="64"/>
-      <c r="AL23" s="64"/>
+      <c r="AL23" s="64">
+        <v>1</v>
+      </c>
       <c r="AM23" s="64"/>
       <c r="AN23" s="64"/>
       <c r="AO23" s="64"/>
@@ -4717,7 +4791,9 @@
       <c r="AI24" s="61"/>
       <c r="AJ24" s="61"/>
       <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
+      <c r="AL24" s="61">
+        <v>1</v>
+      </c>
       <c r="AM24" s="61"/>
       <c r="AN24" s="61"/>
       <c r="AO24" s="61"/>
@@ -4827,8 +4903,12 @@
       <c r="AI25" s="64"/>
       <c r="AJ25" s="64"/>
       <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
+      <c r="AL25" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="64">
+        <v>1</v>
+      </c>
       <c r="AN25" s="64"/>
       <c r="AO25" s="64"/>
       <c r="AP25" s="64"/>
@@ -5246,7 +5326,9 @@
       <c r="AJ29" s="64"/>
       <c r="AK29" s="64"/>
       <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
+      <c r="AM29" s="64">
+        <v>1</v>
+      </c>
       <c r="AN29" s="64"/>
       <c r="AO29" s="64"/>
       <c r="AP29" s="64"/>
@@ -5350,7 +5432,9 @@
       <c r="AJ30" s="61"/>
       <c r="AK30" s="61"/>
       <c r="AL30" s="61"/>
-      <c r="AM30" s="61"/>
+      <c r="AM30" s="61">
+        <v>1</v>
+      </c>
       <c r="AN30" s="61"/>
       <c r="AO30" s="61"/>
       <c r="AP30" s="61"/>
@@ -8601,11 +8685,11 @@
       </c>
       <c r="AK1" s="58" t="str">
         <f>真值表!AL1</f>
-        <v>XXX</v>
+        <v>R1</v>
       </c>
       <c r="AL1" s="58" t="str">
         <f>真值表!AM1</f>
-        <v>XXX</v>
+        <v>R2</v>
       </c>
       <c r="AM1" s="58" t="str">
         <f>真值表!AN1</f>
@@ -8779,7 +8863,7 @@
       </c>
       <c r="AL2" s="31" t="str">
         <f>IF(真值表!AM2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM2" s="31" t="str">
         <f>IF(真值表!AN2=1,$P2&amp;"+","")</f>
@@ -8953,7 +9037,7 @@
       </c>
       <c r="AL3" s="51" t="str">
         <f>IF(真值表!AM3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM3" s="51" t="str">
         <f>IF(真值表!AN3=1,$P3&amp;"+","")</f>
@@ -9127,7 +9211,7 @@
       </c>
       <c r="AL4" s="31" t="str">
         <f>IF(真值表!AM4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AM4" s="31" t="str">
         <f>IF(真值表!AN4=1,$P4&amp;"+","")</f>
@@ -9297,11 +9381,11 @@
       </c>
       <c r="AK5" s="51" t="str">
         <f>IF(真值表!AL5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL5" s="51" t="str">
         <f>IF(真值表!AM5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM5" s="51" t="str">
         <f>IF(真值表!AN5=1,$P5&amp;"+","")</f>
@@ -9471,11 +9555,11 @@
       </c>
       <c r="AK6" s="31" t="str">
         <f>IF(真值表!AL6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AL6" s="31" t="str">
         <f>IF(真值表!AM6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AM6" s="31" t="str">
         <f>IF(真值表!AN6=1,$P6&amp;"+","")</f>
@@ -9645,11 +9729,11 @@
       </c>
       <c r="AK7" s="51" t="str">
         <f>IF(真值表!AL7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL7" s="51" t="str">
         <f>IF(真值表!AM7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AM7" s="51" t="str">
         <f>IF(真值表!AN7=1,$P7&amp;"+","")</f>
@@ -9819,11 +9903,11 @@
       </c>
       <c r="AK8" s="31" t="str">
         <f>IF(真值表!AL8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL8" s="31" t="str">
         <f>IF(真值表!AM8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM8" s="31" t="str">
         <f>IF(真值表!AN8=1,$P8&amp;"+","")</f>
@@ -9993,11 +10077,11 @@
       </c>
       <c r="AK9" s="51" t="str">
         <f>IF(真值表!AL9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AL9" s="51" t="str">
         <f>IF(真值表!AM9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AM9" s="51" t="str">
         <f>IF(真值表!AN9=1,$P9&amp;"+","")</f>
@@ -10167,11 +10251,11 @@
       </c>
       <c r="AK10" s="31" t="str">
         <f>IF(真值表!AL10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL10" s="31" t="str">
         <f>IF(真值表!AM10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM10" s="31" t="str">
         <f>IF(真值表!AN10=1,$P10&amp;"+","")</f>
@@ -10341,11 +10425,11 @@
       </c>
       <c r="AK11" s="51" t="str">
         <f>IF(真值表!AL11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AL11" s="51" t="str">
         <f>IF(真值表!AM11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AM11" s="51" t="str">
         <f>IF(真值表!AN11=1,$P11&amp;"+","")</f>
@@ -10515,11 +10599,11 @@
       </c>
       <c r="AK12" s="31" t="str">
         <f>IF(真值表!AL12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL12" s="31" t="str">
         <f>IF(真值表!AM12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM12" s="31" t="str">
         <f>IF(真值表!AN12=1,$P12&amp;"+","")</f>
@@ -10689,7 +10773,7 @@
       </c>
       <c r="AK13" s="51" t="str">
         <f>IF(真值表!AL13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL13" s="51" t="str">
         <f>IF(真值表!AM13=1,$P13&amp;"+","")</f>
@@ -10863,11 +10947,11 @@
       </c>
       <c r="AK14" s="31" t="str">
         <f>IF(真值表!AL14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL14" s="31" t="str">
         <f>IF(真值表!AM14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM14" s="31" t="str">
         <f>IF(真值表!AN14=1,$P14&amp;"+","")</f>
@@ -11341,7 +11425,7 @@
       </c>
       <c r="Z17" s="51" t="str">
         <f>IF(真值表!AA17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AA17" s="51" t="str">
         <f>IF(真值表!AB17=1,$P17&amp;"+","")</f>
@@ -11385,11 +11469,11 @@
       </c>
       <c r="AK17" s="51" t="str">
         <f>IF(真值表!AL17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AL17" s="51" t="str">
         <f>IF(真值表!AM17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AM17" s="51" t="str">
         <f>IF(真值表!AN17=1,$P17&amp;"+","")</f>
@@ -11515,7 +11599,7 @@
       </c>
       <c r="Z18" s="31" t="str">
         <f>IF(真值表!AA18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AA18" s="31" t="str">
         <f>IF(真值表!AB18=1,$P18&amp;"+","")</f>
@@ -11559,11 +11643,11 @@
       </c>
       <c r="AK18" s="31" t="str">
         <f>IF(真值表!AL18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AL18" s="31" t="str">
         <f>IF(真值表!AM18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AM18" s="31" t="str">
         <f>IF(真值表!AN18=1,$P18&amp;"+","")</f>
@@ -11733,7 +11817,7 @@
       </c>
       <c r="AK19" s="51" t="str">
         <f>IF(真值表!AL19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AL19" s="51" t="str">
         <f>IF(真值表!AM19=1,$P19&amp;"+","")</f>
@@ -11907,7 +11991,7 @@
       </c>
       <c r="AK20" s="31" t="str">
         <f>IF(真值表!AL20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AL20" s="31" t="str">
         <f>IF(真值表!AM20=1,$P20&amp;"+","")</f>
@@ -12081,7 +12165,7 @@
       </c>
       <c r="AK21" s="51" t="str">
         <f>IF(真值表!AL21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AL21" s="51" t="str">
         <f>IF(真值表!AM21=1,$P21&amp;"+","")</f>
@@ -12255,7 +12339,7 @@
       </c>
       <c r="AK22" s="31" t="str">
         <f>IF(真值表!AL22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AL22" s="31" t="str">
         <f>IF(真值表!AM22=1,$P22&amp;"+","")</f>
@@ -12429,7 +12513,7 @@
       </c>
       <c r="AK23" s="51" t="str">
         <f>IF(真值表!AL23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AL23" s="51" t="str">
         <f>IF(真值表!AM23=1,$P23&amp;"+","")</f>
@@ -12603,7 +12687,7 @@
       </c>
       <c r="AK24" s="31" t="str">
         <f>IF(真值表!AL24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AL24" s="31" t="str">
         <f>IF(真值表!AM24=1,$P24&amp;"+","")</f>
@@ -12777,11 +12861,11 @@
       </c>
       <c r="AK25" s="51" t="str">
         <f>IF(真值表!AL25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AL25" s="51" t="str">
         <f>IF(真值表!AM25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AM25" s="51" t="str">
         <f>IF(真值表!AN25=1,$P25&amp;"+","")</f>
@@ -13477,7 +13561,7 @@
       </c>
       <c r="AL29" s="51" t="str">
         <f>IF(真值表!AM29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AM29" s="51" t="str">
         <f>IF(真值表!AN29=1,$P29&amp;"+","")</f>
@@ -13651,7 +13735,7 @@
       </c>
       <c r="AL30" s="31" t="str">
         <f>IF(真值表!AM30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AM30" s="31" t="str">
         <f>IF(真值表!AN30=1,$P30&amp;"+","")</f>
@@ -19125,7 +19209,7 @@
       </c>
       <c r="Z62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="AA62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19169,11 +19253,11 @@
       </c>
       <c r="AK62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="AL62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="AM62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19236,7 +19320,7 @@
       </c>
       <c r="Z63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="2"/>
@@ -19280,11 +19364,11 @@
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AM63" t="str">
         <f t="shared" si="2"/>

--- a/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-3-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\college course\组原课设\cpu.circ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66FB52B-CF3B-474F-96FF-F6966BE77762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7650A-D696-47BB-B8FD-C64C77961999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -871,6 +871,18 @@
   </si>
   <si>
     <t>R2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEZ</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -2089,27 +2101,27 @@
   </sheetPr>
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="32" customWidth="1"/>
-    <col min="5" max="9" width="4.625" style="32" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="32" hidden="1" customWidth="1"/>
-    <col min="11" max="16" width="4.625" style="32" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="3.625" style="32" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.75" style="32" hidden="1" customWidth="1"/>
-    <col min="21" max="31" width="6.625" style="65" customWidth="1"/>
-    <col min="32" max="33" width="6.625" style="66" customWidth="1"/>
-    <col min="34" max="44" width="6.625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="32" customWidth="1"/>
+    <col min="5" max="9" width="4.6640625" style="32" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.21875" style="32" hidden="1" customWidth="1"/>
+    <col min="11" max="16" width="4.6640625" style="32" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="3.6640625" style="32" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" style="32" hidden="1" customWidth="1"/>
+    <col min="21" max="31" width="6.6640625" style="65" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" style="66" customWidth="1"/>
+    <col min="34" max="44" width="6.6640625" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" s="17" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2213,13 +2225,13 @@
         <v>117</v>
       </c>
       <c r="AI1" s="58" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="AJ1" s="58" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="AK1" s="58" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="AL1" s="58" t="s">
         <v>124</v>
@@ -2243,7 +2255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -2353,7 +2365,7 @@
       <c r="AQ2" s="61"/>
       <c r="AR2" s="61"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -2463,7 +2475,7 @@
       <c r="AQ3" s="64"/>
       <c r="AR3" s="64"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -2573,7 +2585,7 @@
       <c r="AQ4" s="61"/>
       <c r="AR4" s="61"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -2685,7 +2697,7 @@
       <c r="AQ5" s="64"/>
       <c r="AR5" s="64"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -2797,7 +2809,7 @@
       <c r="AQ6" s="61"/>
       <c r="AR6" s="61"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -2909,7 +2921,7 @@
       <c r="AQ7" s="64"/>
       <c r="AR7" s="64"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -3021,7 +3033,7 @@
       <c r="AQ8" s="61"/>
       <c r="AR8" s="61"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -3133,7 +3145,7 @@
       <c r="AQ9" s="64"/>
       <c r="AR9" s="64"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -3245,7 +3257,7 @@
       <c r="AQ10" s="61"/>
       <c r="AR10" s="61"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -3357,7 +3369,7 @@
       <c r="AQ11" s="64"/>
       <c r="AR11" s="64"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -3469,7 +3481,7 @@
       <c r="AQ12" s="61"/>
       <c r="AR12" s="61"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3581,7 +3593,7 @@
       <c r="AQ13" s="64"/>
       <c r="AR13" s="64"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -3691,7 +3703,7 @@
       <c r="AQ14" s="61"/>
       <c r="AR14" s="61"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -3797,7 +3809,7 @@
       <c r="AQ15" s="64"/>
       <c r="AR15" s="64"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -3907,7 +3919,7 @@
       <c r="AQ16" s="61"/>
       <c r="AR16" s="61"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -4019,7 +4031,7 @@
       <c r="AQ17" s="64"/>
       <c r="AR17" s="64"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -4131,7 +4143,7 @@
       <c r="AQ18" s="61"/>
       <c r="AR18" s="61"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -4243,7 +4255,7 @@
       <c r="AQ19" s="64"/>
       <c r="AR19" s="64"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -4353,7 +4365,7 @@
       <c r="AQ20" s="61"/>
       <c r="AR20" s="61"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -4465,7 +4477,7 @@
       <c r="AQ21" s="64"/>
       <c r="AR21" s="64"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -4577,7 +4589,7 @@
       <c r="AQ22" s="61"/>
       <c r="AR22" s="61"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -4687,7 +4699,7 @@
       <c r="AQ23" s="64"/>
       <c r="AR23" s="64"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -4801,7 +4813,7 @@
       <c r="AQ24" s="61"/>
       <c r="AR24" s="61"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -4915,7 +4927,7 @@
       <c r="AQ25" s="64"/>
       <c r="AR25" s="64"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -5021,7 +5033,7 @@
       <c r="AQ26" s="61"/>
       <c r="AR26" s="61"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -5104,28 +5116,38 @@
       <c r="V27" s="63"/>
       <c r="W27" s="63"/>
       <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
+      <c r="Y27" s="63">
+        <v>1</v>
+      </c>
       <c r="Z27" s="63"/>
       <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
+      <c r="AB27" s="63">
+        <v>1</v>
+      </c>
       <c r="AC27" s="63"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="63"/>
       <c r="AF27" s="63"/>
       <c r="AG27" s="63"/>
       <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
+      <c r="AI27" s="64">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="64"/>
       <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
+      <c r="AL27" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="64">
+        <v>1</v>
+      </c>
       <c r="AN27" s="64"/>
       <c r="AO27" s="64"/>
       <c r="AP27" s="64"/>
       <c r="AQ27" s="64"/>
       <c r="AR27" s="64"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A28" s="38">
         <v>27</v>
       </c>
@@ -5208,28 +5230,38 @@
       <c r="V28" s="60"/>
       <c r="W28" s="60"/>
       <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
+      <c r="Y28" s="60">
+        <v>1</v>
+      </c>
       <c r="Z28" s="60"/>
       <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
+      <c r="AB28" s="60">
+        <v>1</v>
+      </c>
       <c r="AC28" s="60"/>
       <c r="AD28" s="60"/>
       <c r="AE28" s="60"/>
       <c r="AF28" s="60"/>
       <c r="AG28" s="60"/>
       <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
+      <c r="AI28" s="61">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="61"/>
       <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
+      <c r="AL28" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="61">
+        <v>1</v>
+      </c>
       <c r="AN28" s="61"/>
       <c r="AO28" s="61"/>
       <c r="AP28" s="61"/>
       <c r="AQ28" s="61"/>
       <c r="AR28" s="61"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -5290,28 +5322,32 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q29" s="33" t="str">
+      <c r="Q29" s="33">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="R29" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R29" s="33">
         <f t="shared" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="S29" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="S29" s="33">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="T29" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T29" s="33">
         <f t="shared" si="15"/>
-        <v>X</v>
-      </c>
-      <c r="U29" s="62" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="U29" s="62">
+        <v>5</v>
       </c>
       <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
+      <c r="W29" s="63">
+        <v>1</v>
+      </c>
+      <c r="X29" s="63">
+        <v>1</v>
+      </c>
       <c r="Y29" s="63"/>
       <c r="Z29" s="63"/>
       <c r="AA29" s="63"/>
@@ -5323,19 +5359,21 @@
       <c r="AG29" s="63"/>
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
+      <c r="AJ29" s="64">
+        <v>1</v>
+      </c>
       <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64">
-        <v>1</v>
-      </c>
+      <c r="AL29" s="64">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="64"/>
       <c r="AN29" s="64"/>
       <c r="AO29" s="64"/>
       <c r="AP29" s="64"/>
       <c r="AQ29" s="64"/>
       <c r="AR29" s="64"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="38">
         <v>29</v>
       </c>
@@ -5402,25 +5440,27 @@
       </c>
       <c r="R30" s="33">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="33">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V30" s="60"/>
       <c r="W30" s="60"/>
       <c r="X30" s="60"/>
       <c r="Y30" s="60"/>
       <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
+      <c r="AA30" s="60">
+        <v>1</v>
+      </c>
       <c r="AB30" s="60"/>
       <c r="AC30" s="60"/>
       <c r="AD30" s="60"/>
@@ -5430,18 +5470,20 @@
       <c r="AH30" s="61"/>
       <c r="AI30" s="61"/>
       <c r="AJ30" s="61"/>
-      <c r="AK30" s="61"/>
-      <c r="AL30" s="61"/>
-      <c r="AM30" s="61">
-        <v>1</v>
-      </c>
+      <c r="AK30" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="61">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="61"/>
       <c r="AN30" s="61"/>
       <c r="AO30" s="61"/>
       <c r="AP30" s="61"/>
       <c r="AQ30" s="61"/>
       <c r="AR30" s="61"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -5537,7 +5579,7 @@
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A32" s="38">
         <v>31</v>
       </c>
@@ -5633,7 +5675,7 @@
       <c r="AQ32" s="61"/>
       <c r="AR32" s="61"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A33" s="27"/>
       <c r="B33" s="52"/>
       <c r="C33" s="46"/>
@@ -5727,7 +5769,7 @@
       <c r="AQ33" s="64"/>
       <c r="AR33" s="64"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A34" s="38"/>
       <c r="B34" s="35"/>
       <c r="C34" s="39"/>
@@ -5821,7 +5863,7 @@
       <c r="AQ34" s="61"/>
       <c r="AR34" s="61"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A35" s="27"/>
       <c r="B35" s="52"/>
       <c r="C35" s="46"/>
@@ -5915,7 +5957,7 @@
       <c r="AQ35" s="64"/>
       <c r="AR35" s="64"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A36" s="38"/>
       <c r="B36" s="35"/>
       <c r="C36" s="39"/>
@@ -6009,7 +6051,7 @@
       <c r="AQ36" s="61"/>
       <c r="AR36" s="61"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A37" s="27"/>
       <c r="B37" s="52"/>
       <c r="C37" s="46"/>
@@ -6103,7 +6145,7 @@
       <c r="AQ37" s="64"/>
       <c r="AR37" s="64"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A38" s="38"/>
       <c r="B38" s="35"/>
       <c r="C38" s="39"/>
@@ -6197,7 +6239,7 @@
       <c r="AQ38" s="61"/>
       <c r="AR38" s="61"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A39" s="27"/>
       <c r="B39" s="52"/>
       <c r="C39" s="46"/>
@@ -6291,7 +6333,7 @@
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A40" s="38"/>
       <c r="B40" s="35"/>
       <c r="C40" s="39"/>
@@ -6385,7 +6427,7 @@
       <c r="AQ40" s="61"/>
       <c r="AR40" s="61"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41" s="27"/>
       <c r="B41" s="52"/>
       <c r="C41" s="46"/>
@@ -6479,7 +6521,7 @@
       <c r="AQ41" s="64"/>
       <c r="AR41" s="64"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A42" s="38"/>
       <c r="B42" s="35"/>
       <c r="C42" s="39"/>
@@ -6573,7 +6615,7 @@
       <c r="AQ42" s="61"/>
       <c r="AR42" s="61"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A43" s="27"/>
       <c r="B43" s="52"/>
       <c r="C43" s="46"/>
@@ -6667,7 +6709,7 @@
       <c r="AQ43" s="64"/>
       <c r="AR43" s="64"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A44" s="38"/>
       <c r="B44" s="35"/>
       <c r="C44" s="39"/>
@@ -6761,7 +6803,7 @@
       <c r="AQ44" s="61"/>
       <c r="AR44" s="61"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A45" s="27"/>
       <c r="B45" s="52"/>
       <c r="C45" s="46"/>
@@ -6855,7 +6897,7 @@
       <c r="AQ45" s="64"/>
       <c r="AR45" s="64"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A46" s="38"/>
       <c r="B46" s="35"/>
       <c r="C46" s="39"/>
@@ -6949,7 +6991,7 @@
       <c r="AQ46" s="61"/>
       <c r="AR46" s="61"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A47" s="27"/>
       <c r="B47" s="52"/>
       <c r="C47" s="46"/>
@@ -7043,7 +7085,7 @@
       <c r="AQ47" s="64"/>
       <c r="AR47" s="64"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A48" s="38"/>
       <c r="B48" s="35"/>
       <c r="C48" s="39"/>
@@ -7137,7 +7179,7 @@
       <c r="AQ48" s="61"/>
       <c r="AR48" s="61"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A49" s="27"/>
       <c r="B49" s="52"/>
       <c r="C49" s="46"/>
@@ -7231,7 +7273,7 @@
       <c r="AQ49" s="64"/>
       <c r="AR49" s="64"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A50" s="38"/>
       <c r="B50" s="35"/>
       <c r="C50" s="39"/>
@@ -7325,7 +7367,7 @@
       <c r="AQ50" s="61"/>
       <c r="AR50" s="61"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A51" s="27"/>
       <c r="B51" s="52"/>
       <c r="C51" s="46"/>
@@ -7419,7 +7461,7 @@
       <c r="AQ51" s="64"/>
       <c r="AR51" s="64"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A52" s="38"/>
       <c r="B52" s="35"/>
       <c r="C52" s="39"/>
@@ -7513,7 +7555,7 @@
       <c r="AQ52" s="61"/>
       <c r="AR52" s="61"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A53" s="27"/>
       <c r="B53" s="52"/>
       <c r="C53" s="46"/>
@@ -7607,7 +7649,7 @@
       <c r="AQ53" s="64"/>
       <c r="AR53" s="64"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A54" s="38"/>
       <c r="B54" s="35"/>
       <c r="C54" s="39"/>
@@ -7701,7 +7743,7 @@
       <c r="AQ54" s="61"/>
       <c r="AR54" s="61"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A55" s="27"/>
       <c r="B55" s="52"/>
       <c r="C55" s="46"/>
@@ -7795,7 +7837,7 @@
       <c r="AQ55" s="64"/>
       <c r="AR55" s="64"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A56" s="38"/>
       <c r="B56" s="35"/>
       <c r="C56" s="39"/>
@@ -7889,7 +7931,7 @@
       <c r="AQ56" s="61"/>
       <c r="AR56" s="61"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A57" s="27"/>
       <c r="B57" s="52"/>
       <c r="C57" s="46"/>
@@ -7983,7 +8025,7 @@
       <c r="AQ57" s="64"/>
       <c r="AR57" s="64"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A58" s="38"/>
       <c r="B58" s="35"/>
       <c r="C58" s="39"/>
@@ -8077,7 +8119,7 @@
       <c r="AQ58" s="61"/>
       <c r="AR58" s="61"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A59" s="27"/>
       <c r="B59" s="52"/>
       <c r="C59" s="46"/>
@@ -8171,7 +8213,7 @@
       <c r="AQ59" s="64"/>
       <c r="AR59" s="64"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A60" s="38"/>
       <c r="B60" s="35"/>
       <c r="C60" s="39"/>
@@ -8265,7 +8307,7 @@
       <c r="AQ60" s="61"/>
       <c r="AR60" s="61"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A61" s="27"/>
       <c r="B61" s="52"/>
       <c r="C61" s="46"/>
@@ -8521,28 +8563,28 @@
   </sheetPr>
   <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA62" sqref="AA62"/>
+      <selection pane="bottomLeft" activeCell="AL62" sqref="AL62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="18" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="4.625" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.25" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="4.625" style="18" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.875" style="18" customWidth="1"/>
-    <col min="17" max="20" width="4.625" style="18" customWidth="1"/>
-    <col min="21" max="32" width="6.625" customWidth="1"/>
-    <col min="33" max="36" width="6.625" style="19" customWidth="1"/>
-    <col min="37" max="43" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="4.6640625" style="18" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="18" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" style="18" customWidth="1"/>
+    <col min="17" max="20" width="4.6640625" style="18" customWidth="1"/>
+    <col min="21" max="32" width="6.6640625" customWidth="1"/>
+    <col min="33" max="36" width="6.6640625" style="19" customWidth="1"/>
+    <col min="37" max="43" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="17" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -8673,15 +8715,15 @@
       </c>
       <c r="AH1" s="58" t="str">
         <f>真值表!AI1</f>
-        <v>XXX</v>
+        <v>SV</v>
       </c>
       <c r="AI1" s="58" t="str">
         <f>真值表!AJ1</f>
-        <v>XXX</v>
+        <v>SH</v>
       </c>
       <c r="AJ1" s="58" t="str">
         <f>真值表!AK1</f>
-        <v>XXX</v>
+        <v>BLEZ</v>
       </c>
       <c r="AK1" s="58" t="str">
         <f>真值表!AL1</f>
@@ -8712,7 +8754,7 @@
         <v>XXX</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="str">
         <f>真值表!B2</f>
         <v>SLL</v>
@@ -8886,7 +8928,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="str">
         <f>真值表!B3</f>
         <v>SRA</v>
@@ -9060,7 +9102,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="str">
         <f>真值表!B4</f>
         <v>SRL</v>
@@ -9234,7 +9276,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="str">
         <f>真值表!B5</f>
         <v>ADD</v>
@@ -9408,7 +9450,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="str">
         <f>真值表!B6</f>
         <v>ADDU</v>
@@ -9582,7 +9624,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="str">
         <f>真值表!B7</f>
         <v>SUB</v>
@@ -9756,7 +9798,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="str">
         <f>真值表!B8</f>
         <v>AND</v>
@@ -9930,7 +9972,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="str">
         <f>真值表!B9</f>
         <v>OR</v>
@@ -10104,7 +10146,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="str">
         <f>真值表!B10</f>
         <v>NOR</v>
@@ -10278,7 +10320,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="str">
         <f>真值表!B11</f>
         <v>SLT</v>
@@ -10452,7 +10494,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="str">
         <f>真值表!B12</f>
         <v>SLTU</v>
@@ -10626,7 +10668,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="27" t="str">
         <f>真值表!B13</f>
         <v>JR</v>
@@ -10800,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="str">
         <f>真值表!B14</f>
         <v>SYSCALL</v>
@@ -10974,7 +11016,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="str">
         <f>真值表!B15</f>
         <v>J</v>
@@ -11148,7 +11190,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="str">
         <f>真值表!B16</f>
         <v>JAL</v>
@@ -11322,7 +11364,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="str">
         <f>真值表!B17</f>
         <v>BEQ</v>
@@ -11496,7 +11538,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="str">
         <f>真值表!B18</f>
         <v>BNE</v>
@@ -11670,7 +11712,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -11844,7 +11886,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -12018,7 +12060,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="27" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -12192,7 +12234,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -12366,7 +12408,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="27" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -12540,7 +12582,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -12714,7 +12756,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A25" s="27" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -12888,7 +12930,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="str">
         <f>真值表!B26</f>
         <v>ERET</v>
@@ -13062,7 +13104,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A27" s="27" t="str">
         <f>真值表!B27</f>
         <v>SLLV</v>
@@ -13157,7 +13199,7 @@
       </c>
       <c r="X27" s="51" t="str">
         <f>IF(真值表!Y27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="Y27" s="51" t="str">
         <f>IF(真值表!Z27=1,$P27&amp;"+","")</f>
@@ -13169,7 +13211,7 @@
       </c>
       <c r="AA27" s="51" t="str">
         <f>IF(真值表!AB27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AB27" s="51" t="str">
         <f>IF(真值表!AC27=1,$P27&amp;"+","")</f>
@@ -13197,7 +13239,7 @@
       </c>
       <c r="AH27" s="51" t="str">
         <f>IF(真值表!AI27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AI27" s="51" t="str">
         <f>IF(真值表!AJ27=1,$P27&amp;"+","")</f>
@@ -13209,11 +13251,11 @@
       </c>
       <c r="AK27" s="51" t="str">
         <f>IF(真值表!AL27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AL27" s="51" t="str">
         <f>IF(真值表!AM27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AM27" s="51" t="str">
         <f>IF(真值表!AN27=1,$P27&amp;"+","")</f>
@@ -13236,7 +13278,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A28" s="23" t="str">
         <f>真值表!B28</f>
         <v>SRAV</v>
@@ -13331,7 +13373,7 @@
       </c>
       <c r="X28" s="31" t="str">
         <f>IF(真值表!Y28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y28" s="31" t="str">
         <f>IF(真值表!Z28=1,$P28&amp;"+","")</f>
@@ -13343,7 +13385,7 @@
       </c>
       <c r="AA28" s="31" t="str">
         <f>IF(真值表!AB28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB28" s="31" t="str">
         <f>IF(真值表!AC28=1,$P28&amp;"+","")</f>
@@ -13371,7 +13413,7 @@
       </c>
       <c r="AH28" s="31" t="str">
         <f>IF(真值表!AI28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AI28" s="31" t="str">
         <f>IF(真值表!AJ28=1,$P28&amp;"+","")</f>
@@ -13383,11 +13425,11 @@
       </c>
       <c r="AK28" s="31" t="str">
         <f>IF(真值表!AL28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AL28" s="31" t="str">
         <f>IF(真值表!AM28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM28" s="31" t="str">
         <f>IF(真值表!AN28=1,$P28&amp;"+","")</f>
@@ -13410,7 +13452,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" s="27" t="str">
         <f>真值表!B29</f>
         <v>SH</v>
@@ -13481,7 +13523,7 @@
       </c>
       <c r="R29" s="51" t="str">
         <f>IF(真值表!R29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="S29" s="51" t="str">
         <f>IF(真值表!S29=1,$P29&amp;"+","")</f>
@@ -13489,7 +13531,7 @@
       </c>
       <c r="T29" s="51" t="str">
         <f>IF(真值表!T29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="U29" s="51" t="str">
         <f>IF(真值表!V29=1,$P29&amp;"+","")</f>
@@ -13497,11 +13539,11 @@
       </c>
       <c r="V29" s="51" t="str">
         <f>IF(真值表!W29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="W29" s="51" t="str">
         <f>IF(真值表!X29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="X29" s="51" t="str">
         <f>IF(真值表!Y29=1,$P29&amp;"+","")</f>
@@ -13549,7 +13591,7 @@
       </c>
       <c r="AI29" s="51" t="str">
         <f>IF(真值表!AJ29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ29" s="51" t="str">
         <f>IF(真值表!AK29=1,$P29&amp;"+","")</f>
@@ -13557,11 +13599,11 @@
       </c>
       <c r="AK29" s="51" t="str">
         <f>IF(真值表!AL29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AL29" s="51" t="str">
         <f>IF(真值表!AM29=1,$P29&amp;"+","")</f>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
+        <v/>
       </c>
       <c r="AM29" s="51" t="str">
         <f>IF(真值表!AN29=1,$P29&amp;"+","")</f>
@@ -13584,7 +13626,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A30" s="23" t="str">
         <f>真值表!B30</f>
         <v>BLEZ</v>
@@ -13655,15 +13697,15 @@
       </c>
       <c r="R30" s="31" t="str">
         <f>IF(真值表!R30=1,$P30&amp;"+","")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
+        <v/>
       </c>
       <c r="S30" s="31" t="str">
         <f>IF(真值表!S30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="T30" s="31" t="str">
         <f>IF(真值表!T30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="U30" s="31" t="str">
         <f>IF(真值表!V30=1,$P30&amp;"+","")</f>
@@ -13687,7 +13729,7 @@
       </c>
       <c r="Z30" s="31" t="str">
         <f>IF(真值表!AA30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AA30" s="31" t="str">
         <f>IF(真值表!AB30=1,$P30&amp;"+","")</f>
@@ -13727,15 +13769,15 @@
       </c>
       <c r="AJ30" s="31" t="str">
         <f>IF(真值表!AK30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AK30" s="31" t="str">
         <f>IF(真值表!AL30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AL30" s="31" t="str">
         <f>IF(真值表!AM30=1,$P30&amp;"+","")</f>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
+        <v/>
       </c>
       <c r="AM30" s="31" t="str">
         <f>IF(真值表!AN30=1,$P30&amp;"+","")</f>
@@ -13758,7 +13800,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="27">
         <f>真值表!B31</f>
         <v>0</v>
@@ -13932,7 +13974,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <f>真值表!B32</f>
         <v>0</v>
@@ -14106,7 +14148,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="27">
         <f>真值表!B33</f>
         <v>0</v>
@@ -14280,7 +14322,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <f>真值表!B34</f>
         <v>0</v>
@@ -14454,7 +14496,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27">
         <f>真值表!B35</f>
         <v>0</v>
@@ -14628,7 +14670,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23">
         <f>真值表!B36</f>
         <v>0</v>
@@ -14802,7 +14844,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27">
         <f>真值表!B37</f>
         <v>0</v>
@@ -14976,7 +15018,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="23">
         <f>真值表!B38</f>
         <v>0</v>
@@ -15150,7 +15192,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27">
         <f>真值表!B39</f>
         <v>0</v>
@@ -15324,7 +15366,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23">
         <f>真值表!B40</f>
         <v>0</v>
@@ -15498,7 +15540,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27">
         <f>真值表!B41</f>
         <v>0</v>
@@ -15672,7 +15714,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="23">
         <f>真值表!B42</f>
         <v>0</v>
@@ -15846,7 +15888,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="27">
         <f>真值表!B43</f>
         <v>0</v>
@@ -16020,7 +16062,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <f>真值表!B44</f>
         <v>0</v>
@@ -16194,7 +16236,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="27">
         <f>真值表!B45</f>
         <v>0</v>
@@ -16368,7 +16410,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="23">
         <f>真值表!B46</f>
         <v>0</v>
@@ -16542,7 +16584,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="27">
         <f>真值表!B47</f>
         <v>0</v>
@@ -16716,7 +16758,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="23">
         <f>真值表!B48</f>
         <v>0</v>
@@ -16890,7 +16932,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="27">
         <f>真值表!B49</f>
         <v>0</v>
@@ -17064,7 +17106,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="23">
         <f>真值表!B50</f>
         <v>0</v>
@@ -17238,7 +17280,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27">
         <f>真值表!B51</f>
         <v>0</v>
@@ -17412,7 +17454,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="23">
         <f>真值表!B52</f>
         <v>0</v>
@@ -17586,7 +17628,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="27">
         <f>真值表!B53</f>
         <v>0</v>
@@ -17760,7 +17802,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="23">
         <f>真值表!B54</f>
         <v>0</v>
@@ -17934,7 +17976,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="27">
         <f>真值表!B55</f>
         <v>0</v>
@@ -18108,7 +18150,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="23">
         <f>真值表!B56</f>
         <v>0</v>
@@ -18282,7 +18324,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="27">
         <f>真值表!B57</f>
         <v>0</v>
@@ -18456,7 +18498,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23">
         <f>真值表!B58</f>
         <v>0</v>
@@ -18630,7 +18672,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="27">
         <f>真值表!B59</f>
         <v>0</v>
@@ -18804,7 +18846,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="23">
         <f>真值表!B60</f>
         <v>0</v>
@@ -18978,7 +19020,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="27">
         <f>真值表!B61</f>
         <v>0</v>
@@ -19152,7 +19194,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A62" s="68" t="s">
         <v>113</v>
       </c>
@@ -19177,15 +19219,15 @@
       </c>
       <c r="R62" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="S62" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="T62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="U62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19193,15 +19235,15 @@
       </c>
       <c r="V62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="W62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="X62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="Y62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19209,11 +19251,11 @@
       </c>
       <c r="Z62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="AA62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="AB62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19241,23 +19283,23 @@
       </c>
       <c r="AH62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="AI62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0</v>
       </c>
       <c r="AJ62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="AK62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
       </c>
       <c r="AL62" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0</v>
       </c>
       <c r="AM62" s="36" t="str">
         <f t="shared" si="1"/>
@@ -19280,7 +19322,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="Q63" t="str">
         <f t="shared" ref="Q63:AQ63" si="2">CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
@@ -19288,15 +19330,15 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="T63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="2"/>
@@ -19304,15 +19346,15 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="Y63" t="str">
         <f t="shared" si="2"/>
@@ -19320,11 +19362,11 @@
       </c>
       <c r="Z63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AB63" t="str">
         <f t="shared" si="2"/>
@@ -19352,23 +19394,23 @@
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AI63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AL63" t="str">
         <f t="shared" si="2"/>
-        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp;~OP0+</v>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AM63" t="str">
         <f t="shared" si="2"/>
@@ -19420,7 +19462,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="18:32" ht="21" x14ac:dyDescent="0.4">
+    <row r="65" spans="18:32" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="V65" s="69" t="s">
         <v>115</v>
       </c>
@@ -19435,7 +19477,7 @@
       <c r="AE65" s="69"/>
       <c r="AF65" s="69"/>
     </row>
-    <row r="67" spans="18:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="18:32" ht="16.2" x14ac:dyDescent="0.25">
       <c r="R67" s="37" t="s">
         <v>114</v>
       </c>
@@ -19495,17 +19537,17 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -19549,7 +19591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>63</v>
       </c>
@@ -19676,14 +19718,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="56.125" customWidth="1"/>
+    <col min="4" max="4" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19697,7 +19739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -19711,7 +19753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -19725,7 +19767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -19739,7 +19781,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -19753,7 +19795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -19767,7 +19809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -19781,7 +19823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -19795,7 +19837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -19809,7 +19851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -19823,7 +19865,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -19837,7 +19879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -19851,7 +19893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -19865,7 +19907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
